--- a/data/trans_camb/P6904-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6904-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P6904-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6904-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,23</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,15</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,44</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,27</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,74; 1,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,47; 0,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,34; 21,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,55; 19,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,37; 31,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,32; 46,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,26; 0,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,91; 2,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,97; 20,64</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,62%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,05; 1,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,24; 0,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,95; 31,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,13; 45,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,78; 74,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,86; 114,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,24; 0,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,25; 4,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,48; 31,74</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,74</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,49</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,76</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,71</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 15,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,49; 22,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,28; 20,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,86; 11,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,88; 27,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,24; 18,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,55; 12,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,48; 22,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,87; 18,47</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,31%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,96; 33,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,85; 50,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,6; 44,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,27; 22,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,62; 53,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,34; 36,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,9; 25,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,01; 47,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,43; 37,85</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,96</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,56</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,43</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,34</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,91; 29,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,76; 34,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,64; 39,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,81; 14,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,76; 36,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,26; 28,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,83; 18,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,88; 33,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,65; 29,58</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,64%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,76%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,64%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,36%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,08%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,63; 131,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,15; 146,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,71; 178,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,73; 50,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,86; 141,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,88; 102,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,46; 65,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,05; 124,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,68; 109,47</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,45</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,99</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,29</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,07</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,0; 9,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 14,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,5; 17,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,82; 9,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,95; 24,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,19; 19,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,98; 6,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,1; 16,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,62; 15,06</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,66%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,76%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,33%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,18; 19,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 30,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,9; 35,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,65; 19,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,39; 52,6</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,87; 43,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,2; 13,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,53; 32,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,74; 30,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6904-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6904-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,23</t>
+          <t>18,77</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>7,37</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 21,37</t>
+          <t>-14,8; 21,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 46,14</t>
+          <t>-4,9; 44,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 20,64</t>
+          <t>-8,92; 19,83</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,24%</t>
+          <t>33,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>10,77%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,95; 31,41</t>
+          <t>-19,49; 33,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 114,3</t>
+          <t>-8,12; 111,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 31,74</t>
+          <t>-12,0; 32,02</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,47</t>
+          <t>12,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,49</t>
+          <t>11,18</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,71</t>
+          <t>13,41</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 20,45</t>
+          <t>2,84; 20,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 18,2</t>
+          <t>-0,76; 25,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,87; 18,47</t>
+          <t>6,01; 22,26</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>24,95%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,31%</t>
+          <t>25,56%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,6; 44,44</t>
+          <t>5,52; 43,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 36,1</t>
+          <t>-1,39; 49,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,43; 37,85</t>
+          <t>10,29; 45,84</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>21,88</t>
+          <t>22,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>14,56</t>
+          <t>14,51</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18,34</t>
+          <t>18,43</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,64; 39,64</t>
+          <t>5,62; 39,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 28,75</t>
+          <t>-3,27; 28,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,65; 29,58</t>
+          <t>7,69; 29,73</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>71,76%</t>
+          <t>72,48%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>39,82%</t>
+          <t>39,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>55,08%</t>
+          <t>55,34%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,71; 178,78</t>
+          <t>14,97; 178,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 102,36</t>
+          <t>-8,13; 103,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,68; 109,47</t>
+          <t>20,19; 109,55</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,31</t>
+          <t>9,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,99</t>
+          <t>13,57</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10,07</t>
+          <t>11,3</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 17,01</t>
+          <t>2,23; 16,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,19; 19,56</t>
+          <t>4,45; 25,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,62; 15,06</t>
+          <t>5,99; 17,91</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>21,69%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,9; 35,18</t>
+          <t>3,47; 34,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,87; 43,33</t>
+          <t>7,05; 54,38</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,74; 30,56</t>
+          <t>10,8; 36,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6904-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6904-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,74; 1,41</t>
+          <t>-27,82; 1,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,47; 0,13</t>
+          <t>-32,76; -0,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 21,93</t>
+          <t>-15,91; 20,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,55; 19,87</t>
+          <t>-24,85; 19,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,37; 31,02</t>
+          <t>-22,01; 33,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 44,91</t>
+          <t>-5,96; 41,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,26; 0,16</t>
+          <t>-24,12; 0,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,91; 2,76</t>
+          <t>-25,19; 4,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 19,83</t>
+          <t>-7,09; 20,86</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-38,05; 1,99</t>
+          <t>-35,67; 2,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,24; 0,49</t>
+          <t>-42,04; 0,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,49; 33,28</t>
+          <t>-20,21; 30,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,13; 45,72</t>
+          <t>-38,34; 47,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,78; 74,11</t>
+          <t>-35,23; 74,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 111,6</t>
+          <t>-9,37; 104,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,24; 0,22</t>
+          <t>-33,54; 0,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,25; 4,16</t>
+          <t>-34,78; 6,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 32,02</t>
+          <t>-10,03; 32,72</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 15,24</t>
+          <t>-3,22; 15,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 22,82</t>
+          <t>4,36; 22,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 20,13</t>
+          <t>3,02; 20,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 11,44</t>
+          <t>-12,64; 11,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,88; 27,17</t>
+          <t>4,1; 27,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 25,14</t>
+          <t>0,03; 27,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 12,46</t>
+          <t>-2,62; 12,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,48; 22,62</t>
+          <t>7,45; 21,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,01; 22,26</t>
+          <t>6,09; 22,62</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 33,05</t>
+          <t>-6,01; 34,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,85; 50,64</t>
+          <t>8,38; 49,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,52; 43,73</t>
+          <t>5,66; 44,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 22,22</t>
+          <t>-19,63; 22,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 53,31</t>
+          <t>6,73; 53,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 49,15</t>
+          <t>-0,42; 51,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 25,72</t>
+          <t>-4,74; 25,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,01; 47,2</t>
+          <t>13,28; 44,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,29; 45,84</t>
+          <t>10,01; 45,07</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 29,93</t>
+          <t>-7,38; 28,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 34,4</t>
+          <t>-0,06; 35,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,62; 39,58</t>
+          <t>4,94; 39,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 14,28</t>
+          <t>-22,2; 15,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 36,54</t>
+          <t>2,59; 36,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 28,69</t>
+          <t>-1,8; 29,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 18,89</t>
+          <t>-11,24; 15,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,88; 33,08</t>
+          <t>5,71; 30,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,69; 29,73</t>
+          <t>6,27; 28,54</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,63; 131,11</t>
+          <t>-20,99; 127,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,15; 146,85</t>
+          <t>-2,03; 157,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,97; 178,98</t>
+          <t>11,32; 180,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,73; 50,58</t>
+          <t>-51,08; 58,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,86; 141,5</t>
+          <t>3,43; 134,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 103,58</t>
+          <t>-4,14; 109,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,46; 65,78</t>
+          <t>-28,56; 58,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,05; 124,44</t>
+          <t>13,75; 111,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,19; 109,55</t>
+          <t>15,39; 104,57</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 9,78</t>
+          <t>-4,92; 10,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 14,83</t>
+          <t>-0,25; 14,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,23; 16,69</t>
+          <t>0,92; 16,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 9,17</t>
+          <t>-10,03; 9,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,95; 24,23</t>
+          <t>6,56; 24,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,45; 25,23</t>
+          <t>4,72; 24,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 6,95</t>
+          <t>-4,2; 7,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,1; 16,12</t>
+          <t>4,2; 15,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,99; 17,91</t>
+          <t>5,9; 18,23</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 19,79</t>
+          <t>-8,99; 19,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,52; 30,52</t>
+          <t>-0,45; 29,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,47; 34,63</t>
+          <t>1,5; 33,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 19,28</t>
+          <t>-17,86; 19,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,39; 52,6</t>
+          <t>11,58; 54,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,05; 54,38</t>
+          <t>8,3; 51,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 13,9</t>
+          <t>-7,74; 14,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,53; 32,57</t>
+          <t>8,09; 32,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10,8; 36,07</t>
+          <t>10,89; 37,16</t>
         </is>
       </c>
     </row>
